--- a/Prefered_PARX_model_forecast/RollingWindow/KLIC_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/KLIC_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -40,16 +40,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Prefered_PARX_model_forecast/RollingWindow/KLIC_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/RollingWindow/KLIC_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -42,11 +42,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -54,6 +66,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,7 +90,7 @@
   <dimension ref="A1:A365"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -76,1722 +100,1722 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.77690588327669552</v>
+        <v>-1.5983327083611374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.76121845837684</v>
+        <v>-1.6286732139687095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.8610354335854244</v>
+        <v>-1.4421308166794877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-1.6962354901276804</v>
+        <v>-1.3747446662495384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-1.7513649584242705</v>
+        <v>-1.430483853736763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-1.8349193668408728</v>
+        <v>-1.4504044048485976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-1.7376957584539405</v>
+        <v>-1.2790034663554939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1.6274865352914192</v>
+        <v>-1.1765719056503083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-1.5498324338660665</v>
+        <v>-1.1917322077501409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-1.714757897149606</v>
+        <v>-1.1791915987354868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-2.0847213957950665</v>
+        <v>-1.273434567921639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-2.0192679847381543</v>
+        <v>-1.1776742410155636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-2.0723328155919627</v>
+        <v>-1.1756305647888532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-2.0860552486997834</v>
+        <v>-1.056981004056311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-2.0601553408983913</v>
+        <v>-1.0594280991151539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-2.0886033100011985</v>
+        <v>-1.0520033864844098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-2.0757978527875185</v>
+        <v>-1.0745033742522108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-2.0713205699849495</v>
+        <v>-1.1173021304451651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2.023688943403652</v>
+        <v>-1.1215603608728246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1.9940184810428105</v>
+        <v>-1.1754619824649293</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-2.1017314754814183</v>
+        <v>-1.2323316809363236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-2.0953145613232094</v>
+        <v>-1.2283309818414303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-2.0426242604497493</v>
+        <v>-1.1675982978287955</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-2.015021336960408</v>
+        <v>-1.218045141045746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-2.0383246022294115</v>
+        <v>-1.2097248657394348</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-2.0893212737163229</v>
+        <v>-1.1231533972495362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-2.0591532021865828</v>
+        <v>-1.2222135259795421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-2.025272240029985</v>
+        <v>-1.2239081874230822</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-2.0088472617184787</v>
+        <v>-1.2171654228416477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-2.0420537174026658</v>
+        <v>-1.2141875305901706</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-2.1137576700743566</v>
+        <v>-1.2377916776161455</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-2.1446064879415356</v>
+        <v>-1.266875705820633</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-2.1310316633906781</v>
+        <v>-1.3998671835574674</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-2.1026550567551641</v>
+        <v>-1.3936208008219613</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-2.0944203593121391</v>
+        <v>-1.3986807593874628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-2.0762330121693733</v>
+        <v>-1.3940251353100912</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-2.1017841307754419</v>
+        <v>-1.4288790076368612</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-2.1363575123457323</v>
+        <v>-1.5898324877592862</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-2.1631802220496334</v>
+        <v>-1.5875742398067476</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-2.2212746951533493</v>
+        <v>-1.6726136722876552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-2.337263976835986</v>
+        <v>-1.7616684602237083</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-2.3371462823400848</v>
+        <v>-1.9205618421927853</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-2.3835076733713505</v>
+        <v>-2.1662419565107114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-2.5121925173206527</v>
+        <v>-2.2601767628515876</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-2.4851631300218497</v>
+        <v>-2.257088362152186</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-2.5097417819115324</v>
+        <v>-2.2375787516269781</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-2.5992669363866252</v>
+        <v>-2.2428065992924169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-2.6303536973867838</v>
+        <v>-2.2816809874550645</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-2.6230366448896518</v>
+        <v>-2.236176939064233</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-2.63339834868742</v>
+        <v>-2.1068246314812802</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-2.6444646749255938</v>
+        <v>-2.0429289884999773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-2.6497040545272847</v>
+        <v>-1.8728067799046</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-2.7459643483879259</v>
+        <v>-1.73928861961101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-2.7208709672655162</v>
+        <v>-1.528407044587341</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-2.7275073668476013</v>
+        <v>-1.3783405830028119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-2.7031806930672628</v>
+        <v>-1.153370154504378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-2.7119732490219075</v>
+        <v>-0.81988978121596612</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-2.7874103209629713</v>
+        <v>-0.58662675078546456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-2.7643546913677577</v>
+        <v>-0.22785853119221358</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-2.7924050698634058</v>
+        <v>-0.0075519444768851031</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-2.8168732487887809</v>
+        <v>0.42442443400152641</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-2.896426168093901</v>
+        <v>0.81255509464361597</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-3.0338917786219817</v>
+        <v>1.0960547834587389</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-3.1086532522702268</v>
+        <v>1.2742878792004753</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-3.1177033954001208</v>
+        <v>1.5657648063732739</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-3.1059705408063762</v>
+        <v>1.8216915114307273</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-3.1267777613037246</v>
+        <v>1.9733003144946821</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-3.1688383985180932</v>
+        <v>2.2343531721247682</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-3.1479665410196951</v>
+        <v>2.5005108571293952</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-3.0495522523945198</v>
+        <v>2.7188473970762734</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-2.9778328409059913</v>
+        <v>2.8223292175624355</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-2.8379921582573684</v>
+        <v>3.08683061453026</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-2.7137009670984393</v>
+        <v>3.4092619317833717</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-2.524026303060535</v>
+        <v>3.4730334537156851</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-2.3953441683430117</v>
+        <v>3.6662060026518146</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-2.212102740322758</v>
+        <v>3.7035577579430945</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-1.937367299373659</v>
+        <v>3.81411409609718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-1.7331744877154298</v>
+        <v>3.8872780155835378</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-1.43672502470204</v>
+        <v>3.9608306724742177</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-1.2492096801539063</v>
+        <v>4.1502541620043125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.89987574620888955</v>
+        <v>4.2776037045734734</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.57366630707873945</v>
+        <v>4.4975640522963198</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.32602500967424164</v>
+        <v>4.7059796331847608</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.16395237322963721</v>
+        <v>4.9281339842518461</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.092103643764849669</v>
+        <v>5.0573473437858993</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.32542004812388003</v>
+        <v>5.3256553856376856</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.4734763576074888</v>
+        <v>5.5648250739749248</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.71594290841352981</v>
+        <v>5.7478918463792246</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.96678291594969856</v>
+        <v>6.0457594938133319</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1.1785746211482102</v>
+        <v>6.2099811505663673</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.2883019553960227</v>
+        <v>6.5371505569908921</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.5385870093673242</v>
+        <v>6.7528348985236182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.8408520124703724</v>
+        <v>7.0788177468299036</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.9199104068060586</v>
+        <v>7.4799623374090256</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2.1168752158778008</v>
+        <v>7.9606155206100935</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2.1723181598541017</v>
+        <v>8.3863690209050787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2.2971600094456694</v>
+        <v>8.9813912474422146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2.38997466158464</v>
+        <v>9.4770879423397485</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2.4843781576762454</v>
+        <v>10.14606890187849</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2.689439659733464</v>
+        <v>10.748974142229358</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2.8332675477110549</v>
+        <v>11.415287622614382</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>3.0593334250674911</v>
+        <v>12.097177837646941</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>3.2681123613280723</v>
+        <v>13.019695607553361</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>3.4886953468840791</v>
+        <v>13.854397614104341</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>3.6248407016191724</v>
+        <v>14.365237063908003</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>3.890369822969423</v>
+        <v>14.803869260619891</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>4.1318109609242635</v>
+        <v>15.408521839413845</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>4.3214298500980348</v>
+        <v>16.306057474451084</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>4.6110580041643772</v>
+        <v>16.839653380518474</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>4.7762619000093398</v>
+        <v>17.703742148361354</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>5.0869496593148469</v>
+        <v>18.175836210069651</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>5.2961758577298879</v>
+        <v>18.774423926617324</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>5.6003767023069253</v>
+        <v>19.211892949617052</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>5.9611368114697729</v>
+        <v>19.604874295752591</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>6.3832351986786557</v>
+        <v>20.32717586275982</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>6.7578772635587168</v>
+        <v>21.262421414225475</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>7.2775037631007455</v>
+        <v>21.940322658287187</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>7.7080737948859568</v>
+        <v>22.593279925677876</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>8.283598696926239</v>
+        <v>23.202274173010437</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>8.8042952668936909</v>
+        <v>23.565576102587404</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>9.3834818628882299</v>
+        <v>24.075386844333206</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>9.9779702026920614</v>
+        <v>24.68547659467977</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>10.773190688167272</v>
+        <v>25.135405491381988</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>11.494498472189843</v>
+        <v>25.766019224519191</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>11.943654855428095</v>
+        <v>26.383187258406227</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>12.332528634596962</v>
+        <v>26.669845370522062</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>12.857127196310799</v>
+        <v>26.979053826056152</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>13.621254887282825</v>
+        <v>27.291731946919292</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>14.088446525473222</v>
+        <v>27.772117311852625</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>14.839216397021882</v>
+        <v>28.344140454212354</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>15.265429222108484</v>
+        <v>29.055216995592275</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>15.804538477643291</v>
+        <v>29.809869382995338</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>16.210314545857486</v>
+        <v>30.621224155060347</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>16.578120458168829</v>
+        <v>31.667300735777072</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>17.240403482464991</v>
+        <v>32.778621383190504</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>18.089392309671698</v>
+        <v>34.401432262798139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>18.706735202852872</v>
+        <v>35.399600167967854</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>19.302112134467727</v>
+        <v>36.804484029641849</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>19.855631741526693</v>
+        <v>38.621885371283938</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>20.19792887950884</v>
+        <v>40.344277089280041</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>20.671589554453881</v>
+        <v>41.921471376523691</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>21.236459991705427</v>
+        <v>43.939960156193358</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>21.66458453605307</v>
+        <v>46.435699097275197</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>22.2650604937173</v>
+        <v>49.507409286479728</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>22.859400557474256</v>
+        <v>52.592509519490257</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>23.147091834795827</v>
+        <v>55.939451037809206</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>23.461107958873992</v>
+        <v>59.336059766539115</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>23.784151454879982</v>
+        <v>62.844893033649058</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>24.270058511687584</v>
+        <v>65.60523664727684</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>24.84094473530466</v>
+        <v>69.940472776446882</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>25.52968862481789</v>
+        <v>73.088793714243977</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>26.254141078186613</v>
+        <v>76.471061289977385</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>27.028353872452268</v>
+        <v>78.905335548177646</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>28.038141089514678</v>
+        <v>82.632649932984023</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>29.093922484247951</v>
+        <v>85.549936497440129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>30.626386284794801</v>
+        <v>88.357859008186225</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>31.566444509259586</v>
+        <v>93.030739213952288</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>32.873637814555423</v>
+        <v>95.852216702388674</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>34.557447478145995</v>
+        <v>98.27850279262853</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>36.119398453722042</v>
+        <v>100.39814912287511</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>37.534334299359344</v>
+        <v>103.1482518873748</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>39.325230829033259</v>
+        <v>105.57063788071358</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>41.547864542022054</v>
+        <v>107.46692988476846</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>44.271725855039378</v>
+        <v>110.38244192597595</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>46.977920280189231</v>
+        <v>111.89840771228567</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>49.913972643842094</v>
+        <v>114.00683246809005</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>52.86263137872524</v>
+        <v>116.19442865882381</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>55.921385343017079</v>
+        <v>117.90713829203828</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>58.349315695468761</v>
+        <v>119.54047758775485</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>62.132439009105653</v>
+        <v>120.97311123233304</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>64.915126947178905</v>
+        <v>122.72898474962486</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>67.864708502480553</v>
+        <v>123.86955314153307</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>69.995257278534552</v>
+        <v>125.22030090639258</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>73.180550789667265</v>
+        <v>126.12018967299429</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>75.711997956259651</v>
+        <v>127.25264777041151</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>78.138036533861666</v>
+        <v>127.9184361907808</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>82.135913618482135</v>
+        <v>128.61199823105039</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>84.609249803843554</v>
+        <v>130.13876775279971</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>86.769333999340148</v>
+        <v>131.25321189369021</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>88.674745075586799</v>
+        <v>131.66450156915261</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>91.129295672718129</v>
+        <v>132.52902180690592</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>93.341435442112697</v>
+        <v>133.1340915888897</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>95.093395161496616</v>
+        <v>133.35576029409862</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>97.735515553483182</v>
+        <v>133.58566478210366</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>99.145668584525836</v>
+        <v>133.99206060580045</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>101.10650949208487</v>
+        <v>133.99816473844206</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>103.14967856223258</v>
+        <v>134.16442721436442</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>104.75596404551993</v>
+        <v>134.16567551496746</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>106.30072360661869</v>
+        <v>134.12967915734916</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>107.67285317756077</v>
+        <v>133.78008006928462</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>109.33576761791655</v>
+        <v>133.61711687217294</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>110.44894599380837</v>
+        <v>133.484899651322</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>111.78144584572604</v>
+        <v>133.23473062232824</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>112.71103898089279</v>
+        <v>132.94315307172329</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>113.8565182736708</v>
+        <v>132.63901577010705</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>114.57055432383284</v>
+        <v>132.42258736816967</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>115.30217622739031</v>
+        <v>131.96249358982826</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>116.80566039322169</v>
+        <v>131.63667315695542</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>117.91908116549354</v>
+        <v>131.32839727694042</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>118.36841246213859</v>
+        <v>131.10515105373719</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>119.24680354764602</v>
+        <v>130.85664900261412</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>119.8768800818257</v>
+        <v>130.44732752664845</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>120.15149974885189</v>
+        <v>130.02662749871928</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>120.43495617188067</v>
+        <v>129.71825738938421</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>120.88467708844719</v>
+        <v>129.2702150043273</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>120.96003224156678</v>
+        <v>128.889093165763</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>121.1849497584263</v>
+        <v>128.42759162776056</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>121.25970550655943</v>
+        <v>128.00671532871948</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>121.29476288704286</v>
+        <v>127.66439255018878</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>121.04035276319675</v>
+        <v>127.33291920829312</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>120.95378952783419</v>
+        <v>126.95180093299034</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>120.89498686651736</v>
+        <v>126.51974813380207</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>120.71827769728822</v>
+        <v>126.17580802247326</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>120.50137079312314</v>
+        <v>125.77681343880708</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>120.27244818730993</v>
+        <v>125.48182660396127</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>120.11599168952465</v>
+        <v>125.20118309224071</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>119.74957275634561</v>
+        <v>124.85874104626521</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>119.50014086748787</v>
+        <v>124.53711131454848</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>119.26402884477271</v>
+        <v>124.15225439493965</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>119.10058090465725</v>
+        <v>123.79977235138084</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>118.91196631984232</v>
+        <v>123.54911319250049</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>118.58723164499325</v>
+        <v>123.22261842001208</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>118.25206055487185</v>
+        <v>122.93676442541907</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>118.01438486070214</v>
+        <v>122.58181829032132</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>117.65326559169533</v>
+        <v>122.40249841416272</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>117.34997684744023</v>
+        <v>122.03107639638249</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>116.97338746800571</v>
+        <v>121.69267869670348</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>116.6319057044209</v>
+        <v>121.43027024222147</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>116.36209445588629</v>
+        <v>121.13789930673248</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>116.10103357269375</v>
+        <v>120.86101500806853</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>115.80029783501409</v>
+        <v>120.45633422678416</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>115.45229977936239</v>
+        <v>120.20077443176523</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>115.18410576309431</v>
+        <v>119.85717128646908</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>114.86337696866703</v>
+        <v>119.54070100041285</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>114.63409635504365</v>
+        <v>119.30854003206244</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>114.42257424627412</v>
+        <v>119.01786872462577</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>114.15761703102434</v>
+        <v>118.73151270025706</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>113.91125444857904</v>
+        <v>118.3646710572845</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>113.60589828833632</v>
+        <v>118.02478329881953</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>113.33030332562353</v>
+        <v>117.74998465314695</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>113.14903108021782</v>
+        <v>117.56531059308125</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>112.89714033815125</v>
+        <v>117.26204692911321</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>112.68261934443629</v>
+        <v>117.03168647585154</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>112.40060563836899</v>
+        <v>116.87503916056835</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>112.28514976751654</v>
+        <v>116.66199785419147</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>111.98936001342129</v>
+        <v>116.51475056160416</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>111.72245121142311</v>
+        <v>116.31857098884794</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>111.52134993567428</v>
+        <v>116.30007931562298</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>111.28642102272407</v>
+        <v>116.11796585432133</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>111.06381420641947</v>
+        <v>116.0686739664219</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>110.72705343723344</v>
+        <v>115.88790180237578</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>110.51956243144662</v>
+        <v>115.68828382045292</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>110.23358062489481</v>
+        <v>115.46737650238802</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>109.97059881805109</v>
+        <v>115.22077764392795</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>109.78034762853724</v>
+        <v>114.93778166975683</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>109.536057315966</v>
+        <v>114.81392278475474</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>109.29516699623488</v>
+        <v>114.57573803871423</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>108.98749126605178</v>
+        <v>114.4035291665656</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>108.70161051040459</v>
+        <v>114.18425868870281</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>108.46949739615897</v>
+        <v>113.95047564601316</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>108.31814477908104</v>
+        <v>113.69025120211703</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>108.06720964869832</v>
+        <v>113.47118019022243</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>107.88195809925298</v>
+        <v>113.26914004781851</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>107.75918435823144</v>
+        <v>113.05264917948428</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>107.58267084797842</v>
+        <v>112.87681982074574</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>107.46826606532233</v>
+        <v>112.64329833714912</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>107.31279639837648</v>
+        <v>112.46809918111765</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>107.32296328500193</v>
+        <v>112.3217506346998</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>107.1871928957341</v>
+        <v>112.23004716252601</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>107.18907146596945</v>
+        <v>112.11244837099514</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>107.0511522237194</v>
+        <v>111.94687808835133</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>106.90486846743698</v>
+        <v>111.76679719039383</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>106.73877852461422</v>
+        <v>111.54454230642104</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>106.55732328542017</v>
+        <v>111.36236011494869</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>106.33373260875055</v>
+        <v>111.04527400987681</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>106.28258604404182</v>
+        <v>110.82866642874711</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>106.11716104403884</v>
+        <v>110.68204047763611</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>105.97966027955036</v>
+        <v>110.48109411789811</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>105.81491101931033</v>
+        <v>110.39541993104336</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>105.64106501116487</v>
+        <v>110.15398271267912</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>105.44037760902175</v>
+        <v>109.94919966955653</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>105.26979064867723</v>
+        <v>109.73371269476053</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>105.11695255440632</v>
+        <v>109.51931927793954</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>104.95930429106653</v>
+        <v>109.30896276623392</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>104.82542137463156</v>
+        <v>109.0586284533955</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>104.65196223476995</v>
+        <v>108.85421695932489</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>104.52987713487927</v>
+        <v>108.7166488092997</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>104.4236233714162</v>
+        <v>108.56272067492013</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>104.37638186666177</v>
+        <v>108.37577800871519</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>104.29351097326629</v>
+        <v>108.36942504791989</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>104.17830969710612</v>
+        <v>108.13605078521412</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>104.03232913440331</v>
+        <v>108.05213308872501</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>103.85247636645747</v>
+        <v>107.9243773907977</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>103.69649952860938</v>
+        <v>107.87653401088406</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>103.42725937905151</v>
+        <v>107.73628313218502</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>103.24299514756257</v>
+        <v>107.60534293481959</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>103.12863442119645</v>
+        <v>107.41114679377502</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>102.9981914589773</v>
+        <v>107.22414054063159</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>102.91859830623157</v>
+        <v>107.08264450975081</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>102.70304379013511</v>
+        <v>106.84021612931096</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>102.52741157984831</v>
+        <v>106.73097974188745</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>102.33308428312176</v>
+        <v>106.4919932552869</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>102.1290834808221</v>
+        <v>106.28376233589275</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>101.92456955022296</v>
+        <v>106.0424582988673</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>101.69257905108807</v>
+        <v>105.83114671017432</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>101.46655777478301</v>
+        <v>105.59153256640083</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>101.27717212460101</v>
+        <v>105.38711568773897</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>101.06713858764019</v>
+        <v>105.15300153172413</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>100.82324509983717</v>
+        <v>104.88527500527643</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>100.63719174995936</v>
+        <v>104.58986859864169</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>100.36363240617302</v>
+        <v>104.31009532321838</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>100.15063843221337</v>
+        <v>104.01917929391757</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>99.884470383784034</v>
+        <v>103.69831658647584</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>99.604885528487713</v>
+        <v>103.35261600597116</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>99.30703152941922</v>
+        <v>103.02089607841481</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>99.042761129972419</v>
+        <v>102.69349458874737</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>98.757503731836408</v>
+        <v>102.37247478592474</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>98.463849616777523</v>
+        <v>102.07060752138072</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>98.17051920200656</v>
+        <v>101.76674420953414</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>98.001770093017953</v>
+        <v>101.49017727126709</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>98.007637084378175</v>
+        <v>101.2514045982975</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>97.850979997442451</v>
+        <v>100.95827311140486</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>97.738194467804163</v>
+        <v>100.67220477281307</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>97.583309993015675</v>
+        <v>100.46420491020855</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>97.504577637127838</v>
+        <v>100.23363421446318</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>97.405085751508309</v>
+        <v>99.968062579833841</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>97.401661894053305</v>
+        <v>99.69168758208906</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>97.355982781489971</v>
+        <v>99.396391407028617</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>97.236949808762986</v>
+        <v>99.101951152841934</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>97.055788104332223</v>
+        <v>98.807423189256284</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>97.053282620303079</v>
+        <v>98.513959127928459</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>96.95731248151408</v>
+        <v>98.22025020104175</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>96.810133131086403</v>
+        <v>97.930872931439907</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>96.705240830779744</v>
+        <v>97.638305877842456</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>96.539795115518217</v>
+        <v>97.348591122639604</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>96.314606735601444</v>
+        <v>97.059108590738916</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>96.071069959979681</v>
+        <v>96.770804693008586</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>95.960097901819964</v>
+        <v>96.483622154338235</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>95.721186628156602</v>
+        <v>96.197080788814105</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>95.641802686292309</v>
+        <v>95.910954921928536</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>95.445864143983968</v>
+        <v>95.61904801451908</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>95.202685321539803</v>
+        <v>95.320988794767572</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>94.942239131219921</v>
+        <v>95.039149645067027</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>94.760897341628109</v>
+        <v>94.761916566104347</v>
       </c>
     </row>
     <row r="346">
